--- a/script_DNRPA/files/registroInscripcionAutoCorientes.xlsx
+++ b/script_DNRPA/files/registroInscripcionAutoCorientes.xlsx
@@ -500,249 +500,249 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H2" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="K2" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="L2" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="O2" t="n">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="P2" t="n">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="Q2" t="n">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="R2" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="S2" t="n">
-        <v>985</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44593</v>
+        <v>44958</v>
       </c>
       <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22</v>
+      </c>
+      <c r="O3" t="n">
         <v>37</v>
       </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" t="n">
-        <v>35</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q3" t="n">
         <v>63</v>
       </c>
-      <c r="H3" t="n">
-        <v>40</v>
-      </c>
-      <c r="I3" t="n">
-        <v>37</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>36</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>16</v>
-      </c>
-      <c r="N3" t="n">
-        <v>24</v>
-      </c>
-      <c r="O3" t="n">
-        <v>56</v>
-      </c>
-      <c r="P3" t="n">
-        <v>95</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>70</v>
-      </c>
       <c r="R3" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="S3" t="n">
-        <v>735</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44621</v>
+        <v>44986</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>51</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I4" t="n">
+        <v>57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>66</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30</v>
+      </c>
+      <c r="L4" t="n">
         <v>54</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40</v>
-      </c>
-      <c r="L4" t="n">
-        <v>61</v>
       </c>
       <c r="M4" t="n">
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O4" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="Q4" t="n">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="R4" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="S4" t="n">
-        <v>838</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44652</v>
+        <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
         <v>43</v>
       </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>32</v>
-      </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L5" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P5" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="R5" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="S5" t="n">
-        <v>667</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44682</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D6" t="n">
         <v>16</v>
@@ -751,459 +751,459 @@
         <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="K6" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O6" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P6" t="n">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="Q6" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="S6" t="n">
-        <v>815</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
+        <v>50</v>
+      </c>
+      <c r="J7" t="n">
+        <v>58</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" t="n">
+        <v>55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
         <v>48</v>
       </c>
-      <c r="J7" t="n">
-        <v>61</v>
-      </c>
-      <c r="K7" t="n">
-        <v>27</v>
-      </c>
-      <c r="L7" t="n">
-        <v>57</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>59</v>
-      </c>
       <c r="O7" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="P7" t="n">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="Q7" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="R7" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="S7" t="n">
-        <v>826</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44743</v>
+        <v>45108</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I8" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="K8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L8" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O8" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P8" t="n">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="Q8" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="R8" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S8" t="n">
-        <v>879</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44805</v>
+        <v>45170</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44835</v>
+        <v>45200</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44866</v>
+        <v>45231</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B13" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>424</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
